--- a/crowdfunding.xlsx
+++ b/crowdfunding.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tberton/Sandbox/M8-ETL/M8-Async/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilpagollamudi/Desktop/Bootcamp Classwork/GitProjects/Crowdfunding-ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D30995-0CA2-CD4A-A0F0-5AA998D31CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FBDF45-A91E-2646-8134-250DB71590A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="980" windowWidth="28560" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9501,17 +9501,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125"/>
+    <col min="10" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
